--- a/RA_Files/Week_5_Logistic_Regression/Codebook_EDB.xlsx
+++ b/RA_Files/Week_5_Logistic_Regression/Codebook_EDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_5_Logistic_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC925E9-1D2C-D74B-A0A4-AC012A90265C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8ED288-6548-594F-B58D-9C0BA7BB034A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="271">
   <si>
     <t>Item</t>
   </si>
@@ -775,84 +775,6 @@
   </si>
   <si>
     <t>BFP17331</t>
-  </si>
-  <si>
-    <t>vp1d01</t>
-  </si>
-  <si>
-    <t>Registered Unemployed In Prev. Yr</t>
-  </si>
-  <si>
-    <t>Unemploy</t>
-  </si>
-  <si>
-    <t>vp1e01</t>
-  </si>
-  <si>
-    <t>Retired In Prev. Yr</t>
-  </si>
-  <si>
-    <t>Retire</t>
-  </si>
-  <si>
-    <t>wp1d01</t>
-  </si>
-  <si>
-    <t>wp1e01</t>
-  </si>
-  <si>
-    <t>xp1d01</t>
-  </si>
-  <si>
-    <t>xp1e01</t>
-  </si>
-  <si>
-    <t>yp1d01</t>
-  </si>
-  <si>
-    <t>yp1e01</t>
-  </si>
-  <si>
-    <t>zp1d01</t>
-  </si>
-  <si>
-    <t>zp1e01</t>
-  </si>
-  <si>
-    <t>bap1d01</t>
-  </si>
-  <si>
-    <t>bap1e01</t>
-  </si>
-  <si>
-    <t>bbp1d01</t>
-  </si>
-  <si>
-    <t>bbp1e01</t>
-  </si>
-  <si>
-    <t>bcp1d01</t>
-  </si>
-  <si>
-    <t>bcp1e01</t>
-  </si>
-  <si>
-    <t>bdp1d01</t>
-  </si>
-  <si>
-    <t>bdp1e01</t>
-  </si>
-  <si>
-    <t>bep1d01</t>
-  </si>
-  <si>
-    <t>bep1e01</t>
-  </si>
-  <si>
-    <t>bfp1d01</t>
-  </si>
-  <si>
-    <t>bfp1e01</t>
   </si>
   <si>
     <t>wp12402</t>
@@ -1282,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534FB282-082E-1048-B491-AB830EC95702}">
-  <dimension ref="A1:P211"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1456,7 +1378,7 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>70</v>
@@ -1498,7 +1420,7 @@
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>70</v>
@@ -1540,7 +1462,7 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>70</v>
@@ -1582,7 +1504,7 @@
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>70</v>
@@ -1624,7 +1546,7 @@
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
@@ -1666,7 +1588,7 @@
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>70</v>
@@ -1708,7 +1630,7 @@
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>70</v>
@@ -1750,7 +1672,7 @@
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>70</v>
@@ -1792,7 +1714,7 @@
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>70</v>
@@ -1834,7 +1756,7 @@
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>70</v>
@@ -1914,7 +1836,7 @@
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>77</v>
@@ -1929,7 +1851,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>72</v>
@@ -1956,7 +1878,7 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>77</v>
@@ -1971,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>72</v>
@@ -1998,7 +1920,7 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>77</v>
@@ -2013,7 +1935,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>72</v>
@@ -2040,7 +1962,7 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>77</v>
@@ -2055,7 +1977,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>72</v>
@@ -2082,7 +2004,7 @@
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>77</v>
@@ -2097,7 +2019,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>72</v>
@@ -2124,7 +2046,7 @@
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>77</v>
@@ -2139,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>72</v>
@@ -2166,7 +2088,7 @@
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>77</v>
@@ -2181,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>72</v>
@@ -2208,7 +2130,7 @@
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>77</v>
@@ -2223,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>72</v>
@@ -2250,7 +2172,7 @@
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>77</v>
@@ -2265,7 +2187,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>72</v>
@@ -2292,7 +2214,7 @@
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>77</v>
@@ -2307,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>72</v>
@@ -6521,7 +6443,7 @@
         <v>148</v>
       </c>
       <c r="I135" s="3" t="str">
-        <f t="shared" ref="I135:I166" si="5">CONCATENATE(G135,"_",H135)</f>
+        <f t="shared" ref="I135:I163" si="5">CONCATENATE(G135,"_",H135)</f>
         <v>LE_MomDied</v>
       </c>
       <c r="J135" s="3">
@@ -7461,7 +7383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="161" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>223</v>
       </c>
@@ -7498,7 +7420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="162" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>237</v>
       </c>
@@ -7535,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="163" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>247</v>
       </c>
@@ -7572,12 +7494,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="164" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>82</v>
@@ -7593,11 +7515,11 @@
         <v>123</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I164" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>LE_Unemploy</v>
+        <f t="shared" ref="I164:I174" si="6">CONCATENATE(G164,"_",H164)</f>
+        <v>LE_SepPart</v>
       </c>
       <c r="J164" s="3">
         <v>0</v>
@@ -7609,12 +7531,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="165" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>82</v>
@@ -7630,11 +7552,11 @@
         <v>123</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I165" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>LE_Unemploy</v>
+        <f t="shared" si="6"/>
+        <v>LE_SepPart</v>
       </c>
       <c r="J165" s="3">
         <v>0</v>
@@ -7646,12 +7568,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="166" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>82</v>
@@ -7667,11 +7589,11 @@
         <v>123</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>LE_Unemploy</v>
+        <f t="shared" si="6"/>
+        <v>LE_SepPart</v>
       </c>
       <c r="J166" s="3">
         <v>0</v>
@@ -7683,12 +7605,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="167" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>82</v>
@@ -7704,11 +7626,11 @@
         <v>123</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I167" s="3" t="str">
-        <f t="shared" ref="I167:I198" si="6">CONCATENATE(G167,"_",H167)</f>
-        <v>LE_Unemploy</v>
+        <f t="shared" si="6"/>
+        <v>LE_SepPart</v>
       </c>
       <c r="J167" s="3">
         <v>0</v>
@@ -7720,12 +7642,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="168" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>82</v>
@@ -7741,11 +7663,11 @@
         <v>123</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I168" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J168" s="3">
         <v>0</v>
@@ -7757,12 +7679,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="169" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>82</v>
@@ -7778,11 +7700,11 @@
         <v>123</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I169" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J169" s="3">
         <v>0</v>
@@ -7794,12 +7716,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="170" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>82</v>
@@ -7815,11 +7737,11 @@
         <v>123</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I170" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J170" s="3">
         <v>0</v>
@@ -7831,12 +7753,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="171" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>82</v>
@@ -7852,11 +7774,11 @@
         <v>123</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I171" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J171" s="3">
         <v>0</v>
@@ -7868,12 +7790,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="172" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>82</v>
@@ -7889,11 +7811,11 @@
         <v>123</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I172" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J172" s="3">
         <v>0</v>
@@ -7905,12 +7827,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="173" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>82</v>
@@ -7926,11 +7848,11 @@
         <v>123</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I173" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J173" s="3">
         <v>0</v>
@@ -7942,12 +7864,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="174" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>82</v>
@@ -7963,11 +7885,11 @@
         <v>123</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="I174" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>LE_Unemploy</v>
+        <v>LE_SepPart</v>
       </c>
       <c r="J174" s="3">
         <v>0</v>
@@ -7979,1074 +7901,260 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A175" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D175" s="2">
-        <v>2005</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F175" s="4"/>
-      <c r="G175" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I175" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J175" s="3">
-        <v>0</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L175" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A176" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D176" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F176" s="4"/>
-      <c r="G176" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I176" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J176" s="3">
-        <v>0</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L176" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A177" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D177" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F177" s="4"/>
-      <c r="G177" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I177" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J177" s="3">
-        <v>0</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L177" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A178" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D178" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F178" s="4"/>
-      <c r="G178" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I178" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J178" s="3">
-        <v>0</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L178" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A179" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D179" s="2">
-        <v>2009</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F179" s="4"/>
-      <c r="G179" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I179" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J179" s="3">
-        <v>0</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L179" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A180" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D180" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F180" s="4"/>
-      <c r="G180" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I180" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J180" s="3">
-        <v>0</v>
-      </c>
-      <c r="K180" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L180" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A181" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D181" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F181" s="4"/>
-      <c r="G181" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I181" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J181" s="3">
-        <v>0</v>
-      </c>
-      <c r="K181" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L181" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A182" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D182" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F182" s="4"/>
-      <c r="G182" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I182" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J182" s="3">
-        <v>0</v>
-      </c>
-      <c r="K182" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L182" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A183" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D183" s="2">
-        <v>2013</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F183" s="4"/>
-      <c r="G183" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I183" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J183" s="3">
-        <v>0</v>
-      </c>
-      <c r="K183" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L183" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A184" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D184" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F184" s="4"/>
-      <c r="G184" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I184" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J184" s="3">
-        <v>0</v>
-      </c>
-      <c r="K184" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L184" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A185" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D185" s="2">
-        <v>2015</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F185" s="4"/>
-      <c r="G185" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I185" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_Retire</v>
-      </c>
-      <c r="J185" s="3">
-        <v>0</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A186" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D186" s="2">
-        <v>2005</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F186" s="4"/>
-      <c r="G186" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I186" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J186" s="3">
-        <v>0</v>
-      </c>
-      <c r="K186" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L186" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A187" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D187" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I187" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J187" s="3">
-        <v>0</v>
-      </c>
-      <c r="K187" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L187" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A188" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D188" s="2">
-        <v>2007</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F188" s="4"/>
-      <c r="G188" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I188" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J188" s="3">
-        <v>0</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L188" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A189" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D189" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F189" s="4"/>
-      <c r="G189" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I189" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J189" s="3">
-        <v>0</v>
-      </c>
-      <c r="K189" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L189" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A190" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D190" s="2">
-        <v>2009</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F190" s="4"/>
-      <c r="G190" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I190" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J190" s="3">
-        <v>0</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L190" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A191" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D191" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I191" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J191" s="3">
-        <v>0</v>
-      </c>
-      <c r="K191" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L191" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D192" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F192" s="4"/>
-      <c r="G192" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I192" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J192" s="3">
-        <v>0</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L192" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A193" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D193" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F193" s="4"/>
-      <c r="G193" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I193" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J193" s="3">
-        <v>0</v>
-      </c>
-      <c r="K193" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L193" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A194" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D194" s="2">
-        <v>2013</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F194" s="4"/>
-      <c r="G194" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I194" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J194" s="3">
-        <v>0</v>
-      </c>
-      <c r="K194" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L194" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A195" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D195" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F195" s="4"/>
-      <c r="G195" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I195" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J195" s="3">
-        <v>0</v>
-      </c>
-      <c r="K195" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L195" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A196" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D196" s="2">
-        <v>2015</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F196" s="4"/>
-      <c r="G196" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I196" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>LE_SepPart</v>
-      </c>
-      <c r="J196" s="3">
-        <v>0</v>
-      </c>
-      <c r="K196" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L196" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A197"/>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197"/>
-      <c r="I197"/>
-      <c r="J197"/>
-      <c r="K197"/>
-      <c r="L197"/>
-      <c r="M197"/>
-      <c r="N197"/>
-      <c r="O197"/>
-    </row>
-    <row r="198" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A198"/>
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-      <c r="O198"/>
-    </row>
-    <row r="199" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A199"/>
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="H199"/>
-      <c r="I199"/>
-      <c r="J199"/>
-      <c r="K199"/>
-      <c r="L199"/>
-      <c r="M199"/>
-      <c r="N199"/>
-      <c r="O199"/>
-    </row>
-    <row r="200" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A200"/>
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-      <c r="J200"/>
-      <c r="K200"/>
-      <c r="L200"/>
-      <c r="M200"/>
-      <c r="N200"/>
-      <c r="O200"/>
-    </row>
-    <row r="201" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A201"/>
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-      <c r="K201"/>
-      <c r="L201"/>
-      <c r="M201"/>
-      <c r="N201"/>
-      <c r="O201"/>
-    </row>
-    <row r="202" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A202"/>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202"/>
-      <c r="M202"/>
-      <c r="N202"/>
-      <c r="O202"/>
-    </row>
-    <row r="203" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A203"/>
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
-      <c r="N203"/>
-      <c r="O203"/>
-    </row>
-    <row r="204" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A204"/>
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204"/>
-      <c r="O204"/>
-    </row>
-    <row r="205" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A205"/>
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-      <c r="K205"/>
-      <c r="L205"/>
-      <c r="M205"/>
-      <c r="N205"/>
-      <c r="O205"/>
-    </row>
-    <row r="206" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A206"/>
-      <c r="B206"/>
-      <c r="C206"/>
-      <c r="D206"/>
-      <c r="E206"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-      <c r="K206"/>
-      <c r="L206"/>
-      <c r="M206"/>
-      <c r="N206"/>
-      <c r="O206"/>
-    </row>
-    <row r="207" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A207"/>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-      <c r="K207"/>
-      <c r="L207"/>
-      <c r="M207"/>
-      <c r="N207"/>
-      <c r="O207"/>
-    </row>
-    <row r="208" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A208"/>
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
-      <c r="K208"/>
-      <c r="L208"/>
-      <c r="M208"/>
-      <c r="N208"/>
-      <c r="O208"/>
-    </row>
-    <row r="209" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A209"/>
-      <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
-      <c r="K209"/>
-      <c r="L209"/>
-      <c r="M209"/>
-      <c r="N209"/>
-      <c r="O209"/>
-    </row>
-    <row r="210" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A210"/>
-      <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
-      <c r="K210"/>
-      <c r="L210"/>
-      <c r="M210"/>
-      <c r="N210"/>
-      <c r="O210"/>
-    </row>
-    <row r="211" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A211"/>
-      <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
-      <c r="H211"/>
-      <c r="I211"/>
-      <c r="J211"/>
-      <c r="K211"/>
-      <c r="L211"/>
-      <c r="M211"/>
-      <c r="N211"/>
-      <c r="O211"/>
+    <row r="175" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+    </row>
+    <row r="176" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+    </row>
+    <row r="177" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+    </row>
+    <row r="178" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+    </row>
+    <row r="179" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+    </row>
+    <row r="180" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+    </row>
+    <row r="181" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+    </row>
+    <row r="182" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+    </row>
+    <row r="183" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+    </row>
+    <row r="184" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+    </row>
+    <row r="185" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+    </row>
+    <row r="186" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+    </row>
+    <row r="187" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="O187"/>
+    </row>
+    <row r="188" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="O188"/>
+    </row>
+    <row r="189" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
